--- a/Design/Excel/ET/Datas/Game/Sound.xlsx
+++ b/Design/Excel/ET/Datas/Game/Sound.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -61,94 +61,103 @@
     <t>string&amp;group=e</t>
   </si>
   <si>
+    <t>string#path=normal;UI/UISound/*.wav</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>声音编号</t>
+  </si>
+  <si>
+    <t>代码名（程序填）</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>优先级（默认0，128最高，-128最低）</t>
+  </si>
+  <si>
+    <t>音量（0~1）</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>选择音效</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>点击音效</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>string#path=normal;Music/*.mp3</t>
+  </si>
+  <si>
+    <t>音乐编号</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>菜单音乐</t>
+  </si>
+  <si>
+    <t>music_menu</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>战斗音乐</t>
+  </si>
+  <si>
+    <t>music_background</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>关于音乐</t>
+  </si>
+  <si>
+    <t>music_about</t>
+  </si>
+  <si>
+    <t>SoundGroupName</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>SpatialBlend</t>
+  </si>
+  <si>
+    <t>MaxDistance</t>
+  </si>
+  <si>
+    <t>string&amp;group=ge</t>
+  </si>
+  <si>
+    <t>string#path=normal;Sound/*.wav</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>声音编号</t>
-  </si>
-  <si>
-    <t>代码名（程序填）</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-  </si>
-  <si>
-    <t>优先级（默认0，128最高，-128最低）</t>
-  </si>
-  <si>
-    <t>音量（0~1）</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>选择音效</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>点击音效</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>音乐编号</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>菜单音乐</t>
-  </si>
-  <si>
-    <t>music_menu</t>
-  </si>
-  <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>战斗音乐</t>
-  </si>
-  <si>
-    <t>music_background</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>关于音乐</t>
-  </si>
-  <si>
-    <t>music_about</t>
-  </si>
-  <si>
-    <t>SoundGroupName</t>
-  </si>
-  <si>
-    <t>Loop</t>
-  </si>
-  <si>
-    <t>SpatialBlend</t>
-  </si>
-  <si>
-    <t>MaxDistance</t>
-  </si>
-  <si>
-    <t>string&amp;group=ge</t>
   </si>
   <si>
     <t>bool</t>
@@ -825,22 +834,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1193,7 +1196,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1201,7 +1204,7 @@
     <col min="1" max="1" width="8.87272727272727" style="1"/>
     <col min="2" max="3" width="19.3727272727273" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.8181818181818" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.2545454545455" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.87272727272727" style="1"/>
@@ -1277,42 +1280,42 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>10001</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1329,127 +1332,127 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="11" style="3"/>
-    <col min="3" max="3" width="14.3727272727273" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.8727272727273" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.6272727272727" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.2545454545455" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="3"/>
+    <col min="1" max="2" width="11" style="2"/>
+    <col min="3" max="3" width="14.3727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.8727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.7272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.2545454545455" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1465,7 +1468,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1473,7 +1476,8 @@
     <col min="1" max="2" width="11" style="1"/>
     <col min="3" max="3" width="21.8727272727273" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="6" width="22.7545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.2727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7545454545455" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.6272727272727" style="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1"/>
     <col min="10" max="10" width="23.7545454545455" style="1" customWidth="1"/>
@@ -1498,22 +1502,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1524,22 +1528,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1568,181 +1572,181 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>10001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>20000</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>20001</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>20002</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>100</v>
       </c>
     </row>
